--- a/Twitter/dataTest/TwitterData.xlsx
+++ b/Twitter/dataTest/TwitterData.xlsx
@@ -1,50 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28000" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="signUp" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>Hand sanitizer</t>
-  </si>
-  <si>
-    <t>T-shirt</t>
-  </si>
-  <si>
-    <t>Mens shirt</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>Bike</t>
-  </si>
-  <si>
-    <t>Tv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+  <si>
+    <t>Elhacen Arib</t>
   </si>
   <si>
     <t>UserName</t>
@@ -89,6 +63,9 @@
     <t>a24343</t>
   </si>
   <si>
+    <t>firstname</t>
+  </si>
+  <si>
     <t>lastName</t>
   </si>
   <si>
@@ -104,153 +81,150 @@
     <t>DataOfBirth</t>
   </si>
   <si>
+    <t>james1</t>
+  </si>
+  <si>
+    <t>william1</t>
+  </si>
+  <si>
+    <t>james1@gmail.com</t>
+  </si>
+  <si>
     <t>test233</t>
   </si>
   <si>
+    <t>james2</t>
+  </si>
+  <si>
+    <t>william2</t>
+  </si>
+  <si>
+    <t>james2@gmail.com</t>
+  </si>
+  <si>
+    <t>james3</t>
+  </si>
+  <si>
+    <t>william3</t>
+  </si>
+  <si>
+    <t>james3@gmail.com</t>
+  </si>
+  <si>
     <t>test235</t>
   </si>
   <si>
+    <t>james4</t>
+  </si>
+  <si>
+    <t>william4</t>
+  </si>
+  <si>
+    <t>james4@gmail.com</t>
+  </si>
+  <si>
     <t>test236</t>
   </si>
   <si>
+    <t>james5</t>
+  </si>
+  <si>
+    <t>william5</t>
+  </si>
+  <si>
+    <t>james5@gmail.com</t>
+  </si>
+  <si>
     <t>test237</t>
   </si>
   <si>
+    <t>james6</t>
+  </si>
+  <si>
+    <t>william6</t>
+  </si>
+  <si>
+    <t>james6@gmail.com</t>
+  </si>
+  <si>
     <t>test238</t>
   </si>
   <si>
+    <t>james7</t>
+  </si>
+  <si>
+    <t>william7</t>
+  </si>
+  <si>
+    <t>james7@gmail.com</t>
+  </si>
+  <si>
     <t>test239</t>
   </si>
   <si>
+    <t>james8</t>
+  </si>
+  <si>
+    <t>william8</t>
+  </si>
+  <si>
     <t>test240</t>
   </si>
   <si>
+    <t>james9</t>
+  </si>
+  <si>
+    <t>william9</t>
+  </si>
+  <si>
     <t>test241</t>
   </si>
   <si>
+    <t>james10</t>
+  </si>
+  <si>
+    <t>william10</t>
+  </si>
+  <si>
     <t>test242</t>
   </si>
   <si>
+    <t>james11</t>
+  </si>
+  <si>
+    <t>william11</t>
+  </si>
+  <si>
     <t>test243</t>
   </si>
   <si>
+    <t>james12</t>
+  </si>
+  <si>
+    <t>william12</t>
+  </si>
+  <si>
     <t>test244</t>
   </si>
   <si>
+    <t>james13</t>
+  </si>
+  <si>
+    <t>william13</t>
+  </si>
+  <si>
     <t>test245</t>
   </si>
   <si>
+    <t>james14</t>
+  </si>
+  <si>
+    <t>william14</t>
+  </si>
+  <si>
     <t>test246</t>
   </si>
   <si>
-    <t>james1</t>
-  </si>
-  <si>
-    <t>william1</t>
-  </si>
-  <si>
-    <t>james2</t>
-  </si>
-  <si>
-    <t>william2</t>
-  </si>
-  <si>
-    <t>james3</t>
-  </si>
-  <si>
-    <t>william3</t>
-  </si>
-  <si>
-    <t>james4</t>
-  </si>
-  <si>
-    <t>william4</t>
-  </si>
-  <si>
-    <t>james5</t>
-  </si>
-  <si>
-    <t>william5</t>
-  </si>
-  <si>
-    <t>james6</t>
-  </si>
-  <si>
-    <t>william6</t>
-  </si>
-  <si>
-    <t>james7</t>
-  </si>
-  <si>
-    <t>william7</t>
-  </si>
-  <si>
-    <t>james1@gmail.com</t>
-  </si>
-  <si>
-    <t>james2@gmail.com</t>
-  </si>
-  <si>
-    <t>james3@gmail.com</t>
-  </si>
-  <si>
-    <t>james4@gmail.com</t>
-  </si>
-  <si>
-    <t>james5@gmail.com</t>
-  </si>
-  <si>
-    <t>james6@gmail.com</t>
-  </si>
-  <si>
-    <t>james7@gmail.com</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>james8</t>
-  </si>
-  <si>
-    <t>william8</t>
-  </si>
-  <si>
-    <t>james9</t>
-  </si>
-  <si>
-    <t>william9</t>
-  </si>
-  <si>
-    <t>james10</t>
-  </si>
-  <si>
-    <t>william10</t>
-  </si>
-  <si>
-    <t>james11</t>
-  </si>
-  <si>
-    <t>william11</t>
-  </si>
-  <si>
-    <t>james12</t>
-  </si>
-  <si>
-    <t>william12</t>
-  </si>
-  <si>
-    <t>james13</t>
-  </si>
-  <si>
-    <t>william13</t>
-  </si>
-  <si>
-    <t>james14</t>
-  </si>
-  <si>
-    <t>william14</t>
-  </si>
-  <si>
     <t>james15</t>
   </si>
   <si>
@@ -267,24 +241,24 @@
   </si>
   <si>
     <t>test248</t>
-  </si>
-  <si>
-    <t>Tv1</t>
-  </si>
-  <si>
-    <t>iphone 11 pro max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,11 +266,154 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,8 +426,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -318,29 +621,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -424,7 +1009,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,511 +1183,465 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.2890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.2890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.2890625" customWidth="1"/>
+    <col min="3" max="3" width="12.859375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.4296875" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
       </c>
       <c r="C2">
         <v>45345345</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3">
         <v>25810</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>45345346</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>25811</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>45345347</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <v>25812</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>45345348</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3">
         <v>25813</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>45345349</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3">
         <v>25814</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>45345350</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3">
         <v>25815</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>45345351</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3">
         <v>25816</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>45345352</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3">
         <v>25817</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>45345353</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3">
         <v>25818</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>45345354</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>57</v>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3">
         <v>25819</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>45345355</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3">
         <v>25820</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>45345356</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F13" s="3">
         <v>25821</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>45345357</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F14" s="3">
         <v>25822</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>45345358</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3">
         <v>25823</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>45345359</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3">
         <v>25824</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>45345360</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F17" s="3">
         <v>25825</v>
@@ -1110,23 +1649,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D15" r:id="rId9"/>
-    <hyperlink ref="D10" r:id="rId10"/>
-    <hyperlink ref="D16" r:id="rId11"/>
-    <hyperlink ref="D11" r:id="rId12"/>
-    <hyperlink ref="D17" r:id="rId13" display="james7@gmail.com"/>
-    <hyperlink ref="D12" r:id="rId14"/>
-    <hyperlink ref="D13" r:id="rId15"/>
-    <hyperlink ref="D14" r:id="rId16"/>
+    <hyperlink ref="D2" r:id="rId1" display="james1@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="james2@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="james3@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="james4@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId5" display="james5@gmail.com"/>
+    <hyperlink ref="D7" r:id="rId6" display="james6@gmail.com"/>
+    <hyperlink ref="D8" r:id="rId7" display="james7@gmail.com"/>
+    <hyperlink ref="D9" r:id="rId2" display="james2@gmail.com"/>
+    <hyperlink ref="D15" r:id="rId2" display="james2@gmail.com"/>
+    <hyperlink ref="D10" r:id="rId3" display="james3@gmail.com"/>
+    <hyperlink ref="D16" r:id="rId3" display="james3@gmail.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="james4@gmail.com"/>
+    <hyperlink ref="D17" r:id="rId7" display="james4@gmail.com"/>
+    <hyperlink ref="D12" r:id="rId5" display="james5@gmail.com"/>
+    <hyperlink ref="D13" r:id="rId6" display="james6@gmail.com"/>
+    <hyperlink ref="D14" r:id="rId7" display="james7@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>